--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2852,28 +2852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.24610398836873</v>
+        <v>109.7226460702964</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6374802695234</v>
+        <v>150.1273649748261</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.505762854362</v>
+        <v>135.7994199667497</v>
       </c>
       <c r="AD2" t="n">
-        <v>85246.10398836873</v>
+        <v>109722.6460702964</v>
       </c>
       <c r="AE2" t="n">
-        <v>116637.4802695234</v>
+        <v>150127.3649748261</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.339679680487077e-06</v>
+        <v>6.179281785230654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>105505.762854362</v>
+        <v>135799.4199667497</v>
       </c>
     </row>
     <row r="3">
@@ -2958,28 +2958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.88646831629315</v>
+        <v>90.27766954364915</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.1487726561554</v>
+        <v>123.5218902392605</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.54510031847082</v>
+        <v>111.7331343989197</v>
       </c>
       <c r="AD3" t="n">
-        <v>65886.46831629315</v>
+        <v>90277.66954364916</v>
       </c>
       <c r="AE3" t="n">
-        <v>90148.7726561554</v>
+        <v>123521.8902392605</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.050778733919368e-06</v>
+        <v>7.495001210073235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>81545.10031847081</v>
+        <v>111733.1343989197</v>
       </c>
     </row>
     <row r="4">
@@ -3064,28 +3064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.65124566198274</v>
+        <v>89.04244688933875</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.45868652635124</v>
+        <v>121.8318041094564</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.01631363684385</v>
+        <v>110.2043477172927</v>
       </c>
       <c r="AD4" t="n">
-        <v>64651.24566198274</v>
+        <v>89042.44688933875</v>
       </c>
       <c r="AE4" t="n">
-        <v>88458.68652635124</v>
+        <v>121831.8041094564</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.210107870263659e-06</v>
+        <v>7.789801826977076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80016.31363684384</v>
+        <v>110204.3477172928</v>
       </c>
     </row>
     <row r="5">
@@ -3170,28 +3170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.29467661437047</v>
+        <v>87.5152856411343</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.60256890780651</v>
+        <v>119.7422747160648</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.337341278735</v>
+        <v>108.3142400765329</v>
       </c>
       <c r="AD5" t="n">
-        <v>63294.67661437047</v>
+        <v>87515.28564113429</v>
       </c>
       <c r="AE5" t="n">
-        <v>86602.56890780652</v>
+        <v>119742.2747160648</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.380174100472347e-06</v>
+        <v>8.104468878656151e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>78337.341278735</v>
+        <v>108314.2400765329</v>
       </c>
     </row>
     <row r="6">
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.8217654697069</v>
+        <v>87.04237449647073</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.95551101631092</v>
+        <v>119.0952168245692</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.75203768425207</v>
+        <v>107.7289364820499</v>
       </c>
       <c r="AD6" t="n">
-        <v>62821.7654697069</v>
+        <v>87042.37449647073</v>
       </c>
       <c r="AE6" t="n">
-        <v>85955.51101631092</v>
+        <v>119095.2168245692</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.423075792913134e-06</v>
+        <v>8.183848241953729e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH6" t="n">
-        <v>77752.03768425208</v>
+        <v>107728.9364820499</v>
       </c>
     </row>
     <row r="7">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.34607163672834</v>
+        <v>86.56668066349215</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.30464572789917</v>
+        <v>118.4443515361574</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.16329006547097</v>
+        <v>107.1401888632688</v>
       </c>
       <c r="AD7" t="n">
-        <v>62346.07163672834</v>
+        <v>86566.68066349215</v>
       </c>
       <c r="AE7" t="n">
-        <v>85304.64572789917</v>
+        <v>118444.3515361574</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.467518024908377e-06</v>
+        <v>8.266078006762535e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.3984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>77163.29006547098</v>
+        <v>107140.1888632688</v>
       </c>
     </row>
     <row r="8">
@@ -3488,28 +3488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.74118292216529</v>
+        <v>85.96179194892912</v>
       </c>
       <c r="AB8" t="n">
-        <v>84.47701030282775</v>
+        <v>117.616716111086</v>
       </c>
       <c r="AC8" t="n">
-        <v>76.41464300377449</v>
+        <v>106.3915418015724</v>
       </c>
       <c r="AD8" t="n">
-        <v>61741.1829221653</v>
+        <v>85961.79194892912</v>
       </c>
       <c r="AE8" t="n">
-        <v>84477.01030282775</v>
+        <v>117616.716111086</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.508505713660292e-06</v>
+        <v>8.341915962121917e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>76414.64300377449</v>
+        <v>106391.5418015724</v>
       </c>
     </row>
     <row r="9">
@@ -3594,28 +3594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>61.46585501748515</v>
+        <v>85.68646404424898</v>
       </c>
       <c r="AB9" t="n">
-        <v>84.10029451703467</v>
+        <v>117.2400003252929</v>
       </c>
       <c r="AC9" t="n">
-        <v>76.07388044385345</v>
+        <v>106.0507792416513</v>
       </c>
       <c r="AD9" t="n">
-        <v>61465.85501748516</v>
+        <v>85686.46404424898</v>
       </c>
       <c r="AE9" t="n">
-        <v>84100.29451703466</v>
+        <v>117240.0003252929</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.520153126352322e-06</v>
+        <v>8.36346672506288e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>76073.88044385346</v>
+        <v>106050.7792416513</v>
       </c>
     </row>
   </sheetData>
@@ -3891,28 +3891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.00378418066634</v>
+        <v>100.4459571000799</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.3599746831441</v>
+        <v>137.434589867149</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.30456657306468</v>
+        <v>124.3180255009235</v>
       </c>
       <c r="AD2" t="n">
-        <v>77003.78418066635</v>
+        <v>100445.9571000799</v>
       </c>
       <c r="AE2" t="n">
-        <v>105359.9746831441</v>
+        <v>137434.589867149</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.907887859787678e-06</v>
+        <v>7.449037374462277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>95304.56657306467</v>
+        <v>124318.0255009235</v>
       </c>
     </row>
     <row r="3">
@@ -3997,28 +3997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.68873564752647</v>
+        <v>85.21615991296061</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.40524962785645</v>
+        <v>116.5965094645106</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.34973106690569</v>
+        <v>105.4687022454768</v>
       </c>
       <c r="AD3" t="n">
-        <v>61688.73564752647</v>
+        <v>85216.1599129606</v>
       </c>
       <c r="AE3" t="n">
-        <v>84405.24962785645</v>
+        <v>116596.5094645106</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.410086015433429e-06</v>
+        <v>8.406304564569027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>76349.73106690569</v>
+        <v>105468.7022454768</v>
       </c>
     </row>
     <row r="4">
@@ -4103,28 +4103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.93064392674892</v>
+        <v>83.28747599159088</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.99975097395712</v>
+        <v>113.9575990357644</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.17380982839518</v>
+        <v>103.0816457243152</v>
       </c>
       <c r="AD4" t="n">
-        <v>59930.64392674892</v>
+        <v>83287.47599159088</v>
       </c>
       <c r="AE4" t="n">
-        <v>81999.75097395713</v>
+        <v>113957.5990357644</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.673499789831906e-06</v>
+        <v>8.908411871852157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>74173.80982839518</v>
+        <v>103081.6457243152</v>
       </c>
     </row>
     <row r="5">
@@ -4209,28 +4209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.12380063984558</v>
+        <v>70.8876022811137</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.89579239340291</v>
+        <v>96.99154478127836</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.17521150535312</v>
+        <v>87.73480787586523</v>
       </c>
       <c r="AD5" t="n">
-        <v>59123.80063984558</v>
+        <v>70887.60228111369</v>
       </c>
       <c r="AE5" t="n">
-        <v>80895.79239340291</v>
+        <v>96991.54478127837</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.774118104793722e-06</v>
+        <v>9.100205908835271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>73175.21150535312</v>
+        <v>87734.80787586523</v>
       </c>
     </row>
     <row r="6">
@@ -4315,28 +4315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.53031443117452</v>
+        <v>70.29411607244263</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.08375837993593</v>
+        <v>96.17951076781138</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.44067687843427</v>
+        <v>87.00027324894639</v>
       </c>
       <c r="AD6" t="n">
-        <v>58530.31443117452</v>
+        <v>70294.11607244263</v>
       </c>
       <c r="AE6" t="n">
-        <v>80083.75837993593</v>
+        <v>96179.51076781139</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.830644976722114e-06</v>
+        <v>9.207954850658519e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>72440.67687843427</v>
+        <v>87000.27324894638</v>
       </c>
     </row>
     <row r="7">
@@ -4421,28 +4421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.95437133621595</v>
+        <v>69.71817297748406</v>
       </c>
       <c r="AB7" t="n">
-        <v>79.29572762859793</v>
+        <v>95.39148001647339</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.7278546759956</v>
+        <v>86.28745104650771</v>
       </c>
       <c r="AD7" t="n">
-        <v>57954.37133621595</v>
+        <v>69718.17297748406</v>
       </c>
       <c r="AE7" t="n">
-        <v>79295.72762859793</v>
+        <v>95391.48001647339</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.888499904163562e-06</v>
+        <v>9.318235271251643e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.216145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>71727.85467599561</v>
+        <v>86287.45104650772</v>
       </c>
     </row>
   </sheetData>
@@ -4718,28 +4718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.95107371503153</v>
+        <v>61.41460571477331</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.71350685961272</v>
+        <v>84.03017296010469</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.06014760846799</v>
+        <v>76.01045118990065</v>
       </c>
       <c r="AD2" t="n">
-        <v>50951.07371503153</v>
+        <v>61414.60571477331</v>
       </c>
       <c r="AE2" t="n">
-        <v>69713.50685961272</v>
+        <v>84030.1729601047</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.524746318047297e-06</v>
+        <v>1.176626381511822e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.177083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>63060.14760846799</v>
+        <v>76010.45118990065</v>
       </c>
     </row>
     <row r="3">
@@ -4824,28 +4824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.09667823128189</v>
+        <v>59.93822235909474</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.49379997958944</v>
+        <v>82.01012011942952</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.38842678865938</v>
+        <v>74.18318935717689</v>
       </c>
       <c r="AD3" t="n">
-        <v>39096.67823128188</v>
+        <v>59938.22235909474</v>
       </c>
       <c r="AE3" t="n">
-        <v>53493.79997958944</v>
+        <v>82010.12011942951</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.855968124313965e-06</v>
+        <v>1.247167958074763e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>48388.42678865938</v>
+        <v>74183.18935717689</v>
       </c>
     </row>
   </sheetData>
@@ -5121,28 +5121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.42890227859042</v>
+        <v>77.20190217039863</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.84026944812493</v>
+        <v>105.6310484570445</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.60218057449985</v>
+        <v>95.54976944643853</v>
       </c>
       <c r="AD2" t="n">
-        <v>55428.90227859042</v>
+        <v>77201.90217039862</v>
       </c>
       <c r="AE2" t="n">
-        <v>75840.26944812493</v>
+        <v>105631.0484570445</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.947498100881197e-06</v>
+        <v>1.004513165153125e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68602.18057449986</v>
+        <v>95549.76944643853</v>
       </c>
     </row>
     <row r="3">
@@ -5227,28 +5227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.68578912388551</v>
+        <v>64.65767467863675</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.45526512913385</v>
+        <v>88.46748299056544</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.44479772033795</v>
+        <v>80.02427057885937</v>
       </c>
       <c r="AD3" t="n">
-        <v>53685.78912388551</v>
+        <v>64657.67467863675</v>
       </c>
       <c r="AE3" t="n">
-        <v>73455.26512913386</v>
+        <v>88467.48299056545</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.328138327493364e-06</v>
+        <v>1.081796291093221e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.151041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>66444.79772033794</v>
+        <v>80024.27057885937</v>
       </c>
     </row>
     <row r="4">
@@ -5333,28 +5333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.74590610961599</v>
+        <v>63.71779166436723</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.16927572429879</v>
+        <v>87.18149358573038</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.28154133940245</v>
+        <v>78.86101419792388</v>
       </c>
       <c r="AD4" t="n">
-        <v>52745.90610961599</v>
+        <v>63717.79166436724</v>
       </c>
       <c r="AE4" t="n">
-        <v>72169.27572429879</v>
+        <v>87181.49358573038</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.486946781218397e-06</v>
+        <v>1.114039897710472e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.059895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>65281.54133940245</v>
+        <v>78861.01419792388</v>
       </c>
     </row>
   </sheetData>
@@ -5630,28 +5630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.40359354074603</v>
+        <v>57.45017134629042</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.85968798137793</v>
+        <v>78.6058589586485</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.6695703915928</v>
+        <v>71.10382610366918</v>
       </c>
       <c r="AD2" t="n">
-        <v>47403.59354074603</v>
+        <v>57450.17134629042</v>
       </c>
       <c r="AE2" t="n">
-        <v>64859.68798137794</v>
+        <v>78605.8589586485</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.039604513094486e-06</v>
+        <v>1.344901957070127e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.014322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58669.5703915928</v>
+        <v>71103.82610366918</v>
       </c>
     </row>
     <row r="3">
@@ -5736,28 +5736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.16452654071195</v>
+        <v>57.17216228012973</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.85014479604784</v>
+        <v>78.22547468943324</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.99707834543376</v>
+        <v>70.75974517523503</v>
       </c>
       <c r="AD3" t="n">
-        <v>37164.52654071194</v>
+        <v>57172.16228012973</v>
       </c>
       <c r="AE3" t="n">
-        <v>50850.14479604784</v>
+        <v>78225.47468943323</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.088883535401979e-06</v>
+        <v>1.355875432800228e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>45997.07834543377</v>
+        <v>70759.74517523503</v>
       </c>
     </row>
   </sheetData>
@@ -6033,28 +6033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.78259135821153</v>
+        <v>102.4518006673743</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.7938171388943</v>
+        <v>140.1790735274926</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.5061265207582</v>
+        <v>126.8005794926318</v>
       </c>
       <c r="AD2" t="n">
-        <v>78782.59135821153</v>
+        <v>102451.8006673743</v>
       </c>
       <c r="AE2" t="n">
-        <v>107793.8171388943</v>
+        <v>140179.0735274926</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.775031339424223e-06</v>
+        <v>7.137692104495893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.127604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97506.1265207582</v>
+        <v>126800.5794926318</v>
       </c>
     </row>
     <row r="3">
@@ -6139,28 +6139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.27415300647139</v>
+        <v>86.02861366165475</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.20624348515562</v>
+        <v>117.7081445264031</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.07427919466642</v>
+        <v>106.4742444172522</v>
       </c>
       <c r="AD3" t="n">
-        <v>62274.15300647139</v>
+        <v>86028.61366165474</v>
       </c>
       <c r="AE3" t="n">
-        <v>85206.24348515563</v>
+        <v>117708.1445264031</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.369585135535523e-06</v>
+        <v>8.261852821224924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>77074.27919466642</v>
+        <v>106474.2444172522</v>
       </c>
     </row>
     <row r="4">
@@ -6245,28 +6245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.7883167144003</v>
+        <v>84.37218516899145</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.17325671987409</v>
+        <v>115.4417459862747</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.23531783294786</v>
+        <v>104.4241477728826</v>
       </c>
       <c r="AD4" t="n">
-        <v>60788.31671440029</v>
+        <v>84372.18516899145</v>
       </c>
       <c r="AE4" t="n">
-        <v>83173.25671987409</v>
+        <v>115441.7459862747</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.602324015877571e-06</v>
+        <v>8.701907040451623e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>75235.31783294785</v>
+        <v>104424.1477728826</v>
       </c>
     </row>
     <row r="5">
@@ -6351,28 +6351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.98485521208987</v>
+        <v>83.56872366668102</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.0739252461937</v>
+        <v>114.3424145125943</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.24090501219376</v>
+        <v>103.4297349521285</v>
       </c>
       <c r="AD5" t="n">
-        <v>59984.85521208987</v>
+        <v>83568.72366668102</v>
       </c>
       <c r="AE5" t="n">
-        <v>82073.9252461937</v>
+        <v>114342.4145125943</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.69770723375166e-06</v>
+        <v>8.882254163404286e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.313802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>74240.90501219376</v>
+        <v>103429.7349521285</v>
       </c>
     </row>
     <row r="6">
@@ -6457,28 +6457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.66694816993072</v>
+        <v>83.25081662452187</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.63895080604291</v>
+        <v>113.9074400724435</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.84744392212038</v>
+        <v>103.0362738620551</v>
       </c>
       <c r="AD6" t="n">
-        <v>59666.94816993072</v>
+        <v>83250.81662452187</v>
       </c>
       <c r="AE6" t="n">
-        <v>81638.95080604291</v>
+        <v>113907.4400724435</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.716731232299051e-06</v>
+        <v>8.918224048689627e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.30078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>73847.44392212038</v>
+        <v>103036.2738620551</v>
       </c>
     </row>
     <row r="7">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.9431066473221</v>
+        <v>70.82042648346483</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.64855890117609</v>
+        <v>96.89963189134821</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.95157363062995</v>
+        <v>87.6516670231494</v>
       </c>
       <c r="AD7" t="n">
-        <v>58943.10664732211</v>
+        <v>70820.42648346483</v>
       </c>
       <c r="AE7" t="n">
-        <v>80648.55890117609</v>
+        <v>96899.63189134821</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.783518628457252e-06</v>
+        <v>9.044503230867472e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>72951.57363062995</v>
+        <v>87651.66702314941</v>
       </c>
     </row>
   </sheetData>
@@ -6860,28 +6860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.87975157460627</v>
+        <v>55.39358868963441</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.09225900715935</v>
+        <v>75.79195183778977</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.40696270902337</v>
+        <v>68.55847432908085</v>
       </c>
       <c r="AD2" t="n">
-        <v>35879.75157460627</v>
+        <v>55393.58868963442</v>
       </c>
       <c r="AE2" t="n">
-        <v>49092.25900715935</v>
+        <v>75791.95183778976</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.247891228477234e-06</v>
+        <v>1.432370767667942e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.981770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>44406.96270902337</v>
+        <v>68558.47432908085</v>
       </c>
     </row>
   </sheetData>
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.33091634373304</v>
+        <v>83.12149767704672</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.54742135364728</v>
+        <v>113.7305001833588</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.66921131570808</v>
+        <v>102.8762208676478</v>
       </c>
       <c r="AD2" t="n">
-        <v>60330.91634373304</v>
+        <v>83121.49767704672</v>
       </c>
       <c r="AE2" t="n">
-        <v>82547.42135364728</v>
+        <v>113730.5001833588</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.369955075199947e-06</v>
+        <v>8.565051554900381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.704427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>74669.21131570809</v>
+        <v>102876.2208676478</v>
       </c>
     </row>
     <row r="3">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.62250298033617</v>
+        <v>80.24249211305764</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.84165070308489</v>
+        <v>109.7913177579495</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.31711421495244</v>
+        <v>99.31298848424116</v>
       </c>
       <c r="AD3" t="n">
-        <v>57622.50298033617</v>
+        <v>80242.49211305764</v>
       </c>
       <c r="AE3" t="n">
-        <v>78841.65070308489</v>
+        <v>109791.3177579495</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.855878814212689e-06</v>
+        <v>9.517455367931266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>71317.11421495244</v>
+        <v>99312.98848424116</v>
       </c>
     </row>
     <row r="4">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.49857925212467</v>
+        <v>67.89395942733255</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.30384867413126</v>
+        <v>92.89551055853541</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.92607785332295</v>
+        <v>84.0296934105194</v>
       </c>
       <c r="AD4" t="n">
-        <v>56498.57925212467</v>
+        <v>67893.95942733255</v>
       </c>
       <c r="AE4" t="n">
-        <v>77303.84867413127</v>
+        <v>92895.5105585354</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.034405782836253e-06</v>
+        <v>9.867365759202496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.216145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>69926.07785332295</v>
+        <v>84029.69341051939</v>
       </c>
     </row>
     <row r="5">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.52297352722984</v>
+        <v>66.91835370243771</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.9689818806439</v>
+        <v>91.56064376504804</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.71860887310827</v>
+        <v>82.82222443030471</v>
       </c>
       <c r="AD5" t="n">
-        <v>55522.97352722983</v>
+        <v>66918.35370243771</v>
       </c>
       <c r="AE5" t="n">
-        <v>75968.9818806439</v>
+        <v>91560.64376504804</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.160588723870076e-06</v>
+        <v>1.011468257978885e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.138020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>68718.60887310827</v>
+        <v>82822.22443030472</v>
       </c>
     </row>
     <row r="6">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.59729332467839</v>
+        <v>66.99267349988627</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.07066950627102</v>
+        <v>91.66233139067516</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.81059157446505</v>
+        <v>82.9142071316615</v>
       </c>
       <c r="AD6" t="n">
-        <v>55597.29332467839</v>
+        <v>66992.67349988627</v>
       </c>
       <c r="AE6" t="n">
-        <v>76070.66950627102</v>
+        <v>91662.33139067516</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.156732581153151e-06</v>
+        <v>1.010712459335531e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.138020833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>68810.59157446506</v>
+        <v>82914.2071316615</v>
       </c>
     </row>
   </sheetData>
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.62898635959569</v>
+        <v>86.92074089160452</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.05998624992849</v>
+        <v>118.9287923602954</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.75110335171425</v>
+        <v>107.5783953350682</v>
       </c>
       <c r="AD2" t="n">
-        <v>63628.98635959569</v>
+        <v>86920.74089160452</v>
       </c>
       <c r="AE2" t="n">
-        <v>87059.98624992848</v>
+        <v>118928.7923602954</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.039828496285002e-06</v>
+        <v>7.76739069747966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.92578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>78751.10335171425</v>
+        <v>107578.3953350682</v>
       </c>
     </row>
     <row r="3">
@@ -7984,28 +7984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.10465419728241</v>
+        <v>83.22581652869904</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.23783950289226</v>
+        <v>113.8732338384124</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.38917552228817</v>
+        <v>103.0053322229911</v>
       </c>
       <c r="AD3" t="n">
-        <v>60104.65419728241</v>
+        <v>83225.81652869904</v>
       </c>
       <c r="AE3" t="n">
-        <v>82237.83950289225</v>
+        <v>113873.2338384124</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.587431220995784e-06</v>
+        <v>8.820268143575324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.45703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>74389.17552228818</v>
+        <v>103005.3322229911</v>
       </c>
     </row>
     <row r="4">
@@ -8090,28 +8090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.99293337543039</v>
+        <v>82.11409570684702</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.7167340287739</v>
+        <v>112.352128364294</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.01324221973425</v>
+        <v>101.6293989204372</v>
       </c>
       <c r="AD4" t="n">
-        <v>58992.93337543039</v>
+        <v>82114.09570684703</v>
       </c>
       <c r="AE4" t="n">
-        <v>80716.73402877391</v>
+        <v>112352.128364294</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.759865749133067e-06</v>
+        <v>9.151808542136675e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>73013.24221973425</v>
+        <v>101629.3989204372</v>
       </c>
     </row>
     <row r="5">
@@ -8196,28 +8196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.96992436215005</v>
+        <v>69.6158911367055</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.31700796483203</v>
+        <v>95.25153348956388</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.74710404680667</v>
+        <v>86.16086081971022</v>
       </c>
       <c r="AD5" t="n">
-        <v>57969.92436215004</v>
+        <v>69615.8911367055</v>
       </c>
       <c r="AE5" t="n">
-        <v>79317.00796483202</v>
+        <v>95251.53348956388</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.889276960594876e-06</v>
+        <v>9.400627877161016e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>71747.10404680666</v>
+        <v>86160.86081971023</v>
       </c>
     </row>
     <row r="6">
@@ -8302,28 +8302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.58377543084048</v>
+        <v>69.22974220539594</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.788661961326</v>
+        <v>94.72318748605787</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.26918264433682</v>
+        <v>85.68293941724039</v>
       </c>
       <c r="AD6" t="n">
-        <v>57583.77543084048</v>
+        <v>69229.74220539593</v>
       </c>
       <c r="AE6" t="n">
-        <v>78788.661961326</v>
+        <v>94723.18748605787</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.912823999636523e-06</v>
+        <v>9.445901841680421e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>71269.18264433682</v>
+        <v>85682.93941724038</v>
       </c>
     </row>
     <row r="7">
@@ -8408,28 +8408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.57278972678971</v>
+        <v>69.21875650134517</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.7736308363887</v>
+        <v>94.70815636112056</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.25558606886722</v>
+        <v>85.66934284177077</v>
       </c>
       <c r="AD7" t="n">
-        <v>57572.78972678971</v>
+        <v>69218.75650134517</v>
       </c>
       <c r="AE7" t="n">
-        <v>78773.63083638871</v>
+        <v>94708.15636112056</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.91036204213838e-06</v>
+        <v>9.441168228412864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>71255.58606886721</v>
+        <v>85669.34284177078</v>
       </c>
     </row>
   </sheetData>
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.59612347236457</v>
+        <v>107.6965830050827</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.3799041355246</v>
+        <v>147.3552161054081</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.4636466180634</v>
+        <v>133.2918410946928</v>
       </c>
       <c r="AD2" t="n">
-        <v>83596.12347236456</v>
+        <v>107696.5830050827</v>
       </c>
       <c r="AE2" t="n">
-        <v>114379.9041355246</v>
+        <v>147355.2161054082</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.437549705950181e-06</v>
+        <v>6.403894376331857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>103463.6466180634</v>
+        <v>133291.8410946928</v>
       </c>
     </row>
     <row r="3">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.63786088416254</v>
+        <v>88.8235717629013</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.44037288284294</v>
+        <v>121.5323295053757</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.99974782176859</v>
+        <v>109.9334545491102</v>
       </c>
       <c r="AD3" t="n">
-        <v>64637.86088416254</v>
+        <v>88823.57176290129</v>
       </c>
       <c r="AE3" t="n">
-        <v>88440.37288284293</v>
+        <v>121532.3295053757</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.149180656548174e-06</v>
+        <v>7.729608862632939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.69140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>79999.7478217686</v>
+        <v>109933.4545491102</v>
       </c>
     </row>
     <row r="4">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.33091926605935</v>
+        <v>87.51663014479811</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.65215770276016</v>
+        <v>119.7441143252929</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.3821973886966</v>
+        <v>108.3159041160382</v>
       </c>
       <c r="AD4" t="n">
-        <v>63330.91926605935</v>
+        <v>87516.63014479811</v>
       </c>
       <c r="AE4" t="n">
-        <v>86652.15770276016</v>
+        <v>119744.1143252929</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.34476976229178e-06</v>
+        <v>8.093976531898988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.528645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>78382.1973886966</v>
+        <v>108315.9041160382</v>
       </c>
     </row>
     <row r="5">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.60617324155584</v>
+        <v>86.62129191970239</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.66052821849692</v>
+        <v>118.5190730661829</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.48520763065041</v>
+        <v>107.207779075341</v>
       </c>
       <c r="AD5" t="n">
-        <v>62606.17324155584</v>
+        <v>86621.29191970239</v>
       </c>
       <c r="AE5" t="n">
-        <v>85660.52821849693</v>
+        <v>118519.0730661829</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.432294298965209e-06</v>
+        <v>8.257028105298446e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.45703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>77485.2076306504</v>
+        <v>107207.779075341</v>
       </c>
     </row>
     <row r="6">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.9932747739521</v>
+        <v>86.00839345209864</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.82193349594986</v>
+        <v>117.6804783436358</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.72664721144788</v>
+        <v>106.4492186561384</v>
       </c>
       <c r="AD6" t="n">
-        <v>61993.2747739521</v>
+        <v>86008.39345209865</v>
       </c>
       <c r="AE6" t="n">
-        <v>84821.93349594987</v>
+        <v>117680.4783436358</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.484150234134091e-06</v>
+        <v>8.353631779430815e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.41796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>76726.64721144788</v>
+        <v>106449.2186561384</v>
       </c>
     </row>
     <row r="7">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.34128169547113</v>
+        <v>85.35640037361769</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.92984780206808</v>
+        <v>116.788392649754</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.91970092413976</v>
+        <v>105.6422723688303</v>
       </c>
       <c r="AD7" t="n">
-        <v>61341.28169547113</v>
+        <v>85356.40037361768</v>
       </c>
       <c r="AE7" t="n">
-        <v>83929.84780206808</v>
+        <v>116788.392649754</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.545770331324335e-06</v>
+        <v>8.468425346832206e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>75919.70092413976</v>
+        <v>105642.2723688303</v>
       </c>
     </row>
     <row r="8">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.67925183431754</v>
+        <v>84.6943705124641</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.02402933934204</v>
+        <v>115.882574187028</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.10033250417179</v>
+        <v>104.8229039488623</v>
       </c>
       <c r="AD8" t="n">
-        <v>60679.25183431754</v>
+        <v>84694.3705124641</v>
       </c>
       <c r="AE8" t="n">
-        <v>83024.02933934203</v>
+        <v>115882.574187028</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.599085008771106e-06</v>
+        <v>8.567746547187899e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>75100.33250417179</v>
+        <v>104822.9039488624</v>
       </c>
     </row>
     <row r="9">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>60.76092960659414</v>
+        <v>84.7760482847407</v>
       </c>
       <c r="AB9" t="n">
-        <v>83.13578447073981</v>
+        <v>115.9943293184257</v>
       </c>
       <c r="AC9" t="n">
-        <v>75.20142188267832</v>
+        <v>104.9239933273689</v>
       </c>
       <c r="AD9" t="n">
-        <v>60760.92960659414</v>
+        <v>84776.0482847407</v>
       </c>
       <c r="AE9" t="n">
-        <v>83135.7844707398</v>
+        <v>115994.3293184257</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.593838242190952e-06</v>
+        <v>8.557972218997555e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>75201.42188267832</v>
+        <v>104923.9933273689</v>
       </c>
     </row>
   </sheetData>
@@ -9744,28 +9744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.932039549435</v>
+        <v>79.00241432706058</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.89692817582964</v>
+        <v>108.0945886227784</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.46255467977171</v>
+        <v>97.77819279635591</v>
       </c>
       <c r="AD2" t="n">
-        <v>56932.03954943499</v>
+        <v>79002.41432706057</v>
       </c>
       <c r="AE2" t="n">
-        <v>77896.92817582964</v>
+        <v>108094.5886227784</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.763908977099524e-06</v>
+        <v>9.549242943886965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>70462.55467977171</v>
+        <v>97778.19279635591</v>
       </c>
     </row>
     <row r="3">
@@ -9850,28 +9850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.24783678240247</v>
+        <v>66.36840978006241</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.59252764819477</v>
+        <v>90.80818622864098</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.37808290424714</v>
+        <v>82.14158038509132</v>
       </c>
       <c r="AD3" t="n">
-        <v>55247.83678240247</v>
+        <v>66368.4097800624</v>
       </c>
       <c r="AE3" t="n">
-        <v>75592.52764819478</v>
+        <v>90808.18622864097</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.114331531653295e-06</v>
+        <v>1.025166402760985e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>68378.08290424713</v>
+        <v>82141.58038509132</v>
       </c>
     </row>
     <row r="4">
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.99106295528077</v>
+        <v>65.1116359529407</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.87295425297957</v>
+        <v>89.08861283342577</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.82262318043431</v>
+        <v>80.5861206612785</v>
       </c>
       <c r="AD4" t="n">
-        <v>53991.06295528077</v>
+        <v>65111.6359529407</v>
       </c>
       <c r="AE4" t="n">
-        <v>73872.95425297957</v>
+        <v>89088.61283342577</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.318267429603814e-06</v>
+        <v>1.066045299563395e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.118489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>66822.62318043431</v>
+        <v>80586.1206612785</v>
       </c>
     </row>
     <row r="5">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.9596541773072</v>
+        <v>65.08022717496713</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.82997937729867</v>
+        <v>89.04563795774489</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.78374976657277</v>
+        <v>80.54724724741696</v>
       </c>
       <c r="AD5" t="n">
-        <v>53959.6541773072</v>
+        <v>65080.22717496713</v>
       </c>
       <c r="AE5" t="n">
-        <v>73829.97937729867</v>
+        <v>89045.63795774488</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.321983685357781e-06</v>
+        <v>1.066790222046315e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.111979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>66783.74976657277</v>
+        <v>80547.24724741696</v>
       </c>
     </row>
   </sheetData>
@@ -10359,28 +10359,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.73177438085396</v>
+        <v>63.3771128962769</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.14994006955872</v>
+        <v>86.71536186554293</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.26405105241301</v>
+        <v>78.43936943489099</v>
       </c>
       <c r="AD2" t="n">
-        <v>52731.77438085396</v>
+        <v>63377.1128962769</v>
       </c>
       <c r="AE2" t="n">
-        <v>72149.94006955872</v>
+        <v>86715.36186554293</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.26282245704287e-06</v>
+        <v>1.101015370608735e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>65264.05105241301</v>
+        <v>78439.36943489099</v>
       </c>
     </row>
     <row r="3">
@@ -10465,28 +10465,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.94991633125102</v>
+        <v>61.59525484667396</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.71192327606407</v>
+        <v>84.27734507204828</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.05871515991064</v>
+        <v>76.23403354238864</v>
       </c>
       <c r="AD3" t="n">
-        <v>50949.91633125102</v>
+        <v>61595.25484667396</v>
       </c>
       <c r="AE3" t="n">
-        <v>69711.92327606407</v>
+        <v>84277.34507204828</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.658099561515134e-06</v>
+        <v>1.183709812845006e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.053385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>63058.71515991064</v>
+        <v>76234.03354238864</v>
       </c>
     </row>
     <row r="4">
@@ -10571,28 +10571,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.7815607313218</v>
+        <v>61.42689924674475</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.48157171691616</v>
+        <v>84.04699351290037</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.8503480302673</v>
+        <v>76.02566641274528</v>
       </c>
       <c r="AD4" t="n">
-        <v>50781.56073132181</v>
+        <v>61426.89924674475</v>
       </c>
       <c r="AE4" t="n">
-        <v>69481.57171691617</v>
+        <v>84046.99351290037</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.718764574597543e-06</v>
+        <v>1.1964013129682e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>62850.3480302673</v>
+        <v>76025.66641274528</v>
       </c>
     </row>
   </sheetData>
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.98809639149721</v>
+        <v>59.2535711029421</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.02767468510687</v>
+        <v>81.07335006608028</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.63064748710699</v>
+        <v>73.33582332295397</v>
       </c>
       <c r="AD2" t="n">
-        <v>48988.09639149721</v>
+        <v>59253.57110294211</v>
       </c>
       <c r="AE2" t="n">
-        <v>67027.67468510687</v>
+        <v>81073.35006608028</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.849916705232132e-06</v>
+        <v>1.271687518285069e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.053385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60630.64748710699</v>
+        <v>73335.82332295398</v>
       </c>
     </row>
     <row r="3">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.17562361786496</v>
+        <v>58.62105316908391</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.23357242345678</v>
+        <v>80.2079111242541</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.24847358173979</v>
+        <v>72.55298065908423</v>
       </c>
       <c r="AD3" t="n">
-        <v>38175.62361786496</v>
+        <v>58621.05316908391</v>
       </c>
       <c r="AE3" t="n">
-        <v>52233.57242345678</v>
+        <v>80207.9111242541</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.977401843972297e-06</v>
+        <v>1.2994009487272e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.98828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>47248.4735817398</v>
+        <v>72552.98065908422</v>
       </c>
     </row>
   </sheetData>
@@ -19084,28 +19084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.21117652249527</v>
+        <v>53.72364337208676</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.49168217751054</v>
+        <v>73.50705898153434</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.71844093111049</v>
+        <v>66.49164844015847</v>
       </c>
       <c r="AD2" t="n">
-        <v>44211.17652249527</v>
+        <v>53723.64337208676</v>
       </c>
       <c r="AE2" t="n">
-        <v>60491.68217751054</v>
+        <v>73507.05898153434</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.296261097083417e-06</v>
+        <v>1.497582678879423e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>54718.44093111048</v>
+        <v>66491.64844015847</v>
       </c>
     </row>
   </sheetData>
@@ -19381,28 +19381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.82127586933813</v>
+        <v>84.86778847164497</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.58659700660101</v>
+        <v>116.1198522894395</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.51377090634557</v>
+        <v>105.0375365622017</v>
       </c>
       <c r="AD2" t="n">
-        <v>61821.27586933813</v>
+        <v>84867.78847164498</v>
       </c>
       <c r="AE2" t="n">
-        <v>84586.597006601</v>
+        <v>116119.8522894395</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.221840856908008e-06</v>
+        <v>8.192812309626694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.795572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76513.77090634557</v>
+        <v>105037.5365622017</v>
       </c>
     </row>
     <row r="3">
@@ -19487,28 +19487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.72048869743721</v>
+        <v>81.59640909915186</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.34396320093293</v>
+        <v>111.6438067089246</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.67604811651516</v>
+        <v>100.9886784897203</v>
       </c>
       <c r="AD3" t="n">
-        <v>58720.48869743721</v>
+        <v>81596.40909915186</v>
       </c>
       <c r="AE3" t="n">
-        <v>80343.96320093294</v>
+        <v>111643.8067089246</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.743077661209562e-06</v>
+        <v>9.204313086479711e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.37890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>72676.04811651516</v>
+        <v>100988.6784897203</v>
       </c>
     </row>
     <row r="4">
@@ -19593,28 +19593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.49269610202603</v>
+        <v>69.01604191173048</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.66404320550576</v>
+        <v>94.43079331647337</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.15645732766849</v>
+        <v>85.41845093682315</v>
       </c>
       <c r="AD4" t="n">
-        <v>57492.69610202603</v>
+        <v>69016.04191173048</v>
       </c>
       <c r="AE4" t="n">
-        <v>78664.04320550576</v>
+        <v>94430.79331647337</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.939464681231927e-06</v>
+        <v>9.585417455313855e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>71156.4573276685</v>
+        <v>85418.45093682315</v>
       </c>
     </row>
     <row r="5">
@@ -19699,28 +19699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.94371251290313</v>
+        <v>68.4670583226076</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.91289963942155</v>
+        <v>93.67964975038917</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.47700184929452</v>
+        <v>84.73899545844917</v>
       </c>
       <c r="AD5" t="n">
-        <v>56943.71251290313</v>
+        <v>68467.0583226076</v>
       </c>
       <c r="AE5" t="n">
-        <v>77912.89963942155</v>
+        <v>93679.64975038917</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.969672387583617e-06</v>
+        <v>9.644037871580557e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.22265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>70477.00184929452</v>
+        <v>84738.99545844916</v>
       </c>
     </row>
     <row r="6">
@@ -19805,28 +19805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.5788742545027</v>
+        <v>68.10222006420716</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.41371183875033</v>
+        <v>93.18046194971795</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.02545583170472</v>
+        <v>84.28744944085938</v>
       </c>
       <c r="AD6" t="n">
-        <v>56578.8742545027</v>
+        <v>68102.22006420715</v>
       </c>
       <c r="AE6" t="n">
-        <v>77413.71183875033</v>
+        <v>93180.46194971795</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.036021017263983e-06</v>
+        <v>9.772792575605634e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.18359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>70025.45583170472</v>
+        <v>84287.44944085937</v>
       </c>
     </row>
   </sheetData>
@@ -20102,28 +20102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.94417924418106</v>
+        <v>104.8325893064091</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.7513970470035</v>
+        <v>143.4365735764002</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.1814391534279</v>
+        <v>129.7471883088027</v>
       </c>
       <c r="AD2" t="n">
-        <v>80944.17924418105</v>
+        <v>104832.5893064091</v>
       </c>
       <c r="AE2" t="n">
-        <v>110751.3970470035</v>
+        <v>143436.5735764002</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.612162622665822e-06</v>
+        <v>6.777833875936815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.27734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>100181.4391534279</v>
+        <v>129747.1883088028</v>
       </c>
     </row>
     <row r="3">
@@ -20208,28 +20208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.16410306159582</v>
+        <v>87.13776446984444</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.42391241240172</v>
+        <v>119.2257335944477</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.17573550850564</v>
+        <v>107.8469969145927</v>
       </c>
       <c r="AD3" t="n">
-        <v>63164.10306159582</v>
+        <v>87137.76446984443</v>
       </c>
       <c r="AE3" t="n">
-        <v>86423.91241240173</v>
+        <v>119225.7335944477</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.295408168300402e-06</v>
+        <v>8.059870508431317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>78175.73550850563</v>
+        <v>107846.9969145927</v>
       </c>
     </row>
     <row r="4">
@@ -20314,28 +20314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.20130374646585</v>
+        <v>86.00437295412226</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.10656791373356</v>
+        <v>117.6749773209326</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.98411651988532</v>
+        <v>106.4442426433214</v>
       </c>
       <c r="AD4" t="n">
-        <v>62201.30374646586</v>
+        <v>86004.37295412226</v>
       </c>
       <c r="AE4" t="n">
-        <v>85106.56791373355</v>
+        <v>117674.9773209326</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.443824284046581e-06</v>
+        <v>8.338357354712066e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>76984.11651988531</v>
+        <v>106444.2426433214</v>
       </c>
     </row>
     <row r="5">
@@ -20420,28 +20420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.42624662760941</v>
+        <v>85.22931583526582</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.04610057060786</v>
+        <v>116.6145099778069</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.02485869161193</v>
+        <v>105.484984815048</v>
       </c>
       <c r="AD5" t="n">
-        <v>61426.24662760941</v>
+        <v>85229.31583526582</v>
       </c>
       <c r="AE5" t="n">
-        <v>84046.10057060786</v>
+        <v>116614.5099778069</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.535137204364203e-06</v>
+        <v>8.509696208825655e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.404947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>76024.85869161192</v>
+        <v>105484.984815048</v>
       </c>
     </row>
     <row r="6">
@@ -20526,28 +20526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.53431445416138</v>
+        <v>84.33738366181777</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.8257196216265</v>
+        <v>115.3941290288256</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.92094918758555</v>
+        <v>104.3810753110216</v>
       </c>
       <c r="AD6" t="n">
-        <v>60534.31445416137</v>
+        <v>84337.38366181777</v>
       </c>
       <c r="AE6" t="n">
-        <v>82825.7196216265</v>
+        <v>115394.1290288256</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.642368796942963e-06</v>
+        <v>8.71090473586993e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.326822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>74920.94918758555</v>
+        <v>104381.0753110216</v>
       </c>
     </row>
     <row r="7">
@@ -20632,28 +20632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.24099526219695</v>
+        <v>84.04406446985335</v>
       </c>
       <c r="AB7" t="n">
-        <v>82.42438736285152</v>
+        <v>114.9927967700506</v>
       </c>
       <c r="AC7" t="n">
-        <v>74.55791951631456</v>
+        <v>104.0180456397506</v>
       </c>
       <c r="AD7" t="n">
-        <v>60240.99526219695</v>
+        <v>84044.06446985336</v>
       </c>
       <c r="AE7" t="n">
-        <v>82424.38736285151</v>
+        <v>114992.7967700506</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.629534219158647e-06</v>
+        <v>8.686822033849806e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>74557.91951631455</v>
+        <v>104018.0456397506</v>
       </c>
     </row>
     <row r="8">
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.87935505920264</v>
+        <v>71.866275271878</v>
       </c>
       <c r="AB8" t="n">
-        <v>81.9295752826752</v>
+        <v>98.33060834324655</v>
       </c>
       <c r="AC8" t="n">
-        <v>74.11033160659699</v>
+        <v>88.9460730908671</v>
       </c>
       <c r="AD8" t="n">
-        <v>59879.35505920264</v>
+        <v>71866.275271878</v>
       </c>
       <c r="AE8" t="n">
-        <v>81929.5752826752</v>
+        <v>98330.60834324655</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.684383653238756e-06</v>
+        <v>8.78974108573617e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>74110.33160659698</v>
+        <v>88946.0730908671</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.16658603723801</v>
+        <v>51.3268685090258</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.69418327445219</v>
+        <v>70.22768587565167</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.18793139714791</v>
+        <v>63.52525410087114</v>
       </c>
       <c r="AD2" t="n">
-        <v>42166.58603723801</v>
+        <v>51326.8685090258</v>
       </c>
       <c r="AE2" t="n">
-        <v>57694.18327445219</v>
+        <v>70227.68587565167</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.270588115749544e-06</v>
+        <v>1.568226500549424e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.1640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>52187.93139714791</v>
+        <v>63525.25410087113</v>
       </c>
     </row>
   </sheetData>
@@ -21332,28 +21332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.34648491831685</v>
+        <v>75.8037866664102</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.35925826291569</v>
+        <v>103.7180851439857</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.26251501819425</v>
+        <v>93.81937666711657</v>
       </c>
       <c r="AD2" t="n">
-        <v>54346.48491831686</v>
+        <v>75803.7866664102</v>
       </c>
       <c r="AE2" t="n">
-        <v>74359.25826291568</v>
+        <v>103718.0851439857</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.057301644286526e-06</v>
+        <v>1.04144176187981e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67262.51501819424</v>
+        <v>93819.37666711656</v>
       </c>
     </row>
     <row r="3">
@@ -21438,28 +21438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.22152174033268</v>
+        <v>63.03555822322651</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.45178989604011</v>
+        <v>86.24803169354691</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.63253135159485</v>
+        <v>78.01664059860809</v>
       </c>
       <c r="AD3" t="n">
-        <v>52221.52174033268</v>
+        <v>63035.55822322651</v>
       </c>
       <c r="AE3" t="n">
-        <v>71451.78989604011</v>
+        <v>86248.0316935469</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.525175008708945e-06</v>
+        <v>1.137790149864775e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.079427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>64632.53135159485</v>
+        <v>78016.64059860809</v>
       </c>
     </row>
     <row r="4">
@@ -21544,28 +21544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.00547398847893</v>
+        <v>62.81951047137274</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.15618383059982</v>
+        <v>85.95242562810661</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.36513751415437</v>
+        <v>77.74924676116761</v>
       </c>
       <c r="AD4" t="n">
-        <v>52005.47398847892</v>
+        <v>62819.51047137274</v>
       </c>
       <c r="AE4" t="n">
-        <v>71156.18383059981</v>
+        <v>85952.4256281066</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.541452727256729e-06</v>
+        <v>1.141142193518912e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>64365.13751415437</v>
+        <v>77749.24676116761</v>
       </c>
     </row>
   </sheetData>
@@ -21841,28 +21841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.7440687466315</v>
+        <v>81.26668340417829</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.37622646451888</v>
+        <v>111.1926614665909</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.70523221950626</v>
+        <v>100.5805899161285</v>
       </c>
       <c r="AD2" t="n">
-        <v>58744.0687466315</v>
+        <v>81266.6834041783</v>
       </c>
       <c r="AE2" t="n">
-        <v>80376.22646451888</v>
+        <v>111192.6614665909</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.536187947623016e-06</v>
+        <v>8.98702348989147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>72705.23221950626</v>
+        <v>100580.5899161285</v>
       </c>
     </row>
     <row r="3">
@@ -21947,28 +21947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.11986510507163</v>
+        <v>67.38126194239607</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.78567527044456</v>
+        <v>92.19401524102898</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.45735819202298</v>
+        <v>83.39514782156067</v>
       </c>
       <c r="AD3" t="n">
-        <v>56119.86510507162</v>
+        <v>67381.26194239607</v>
       </c>
       <c r="AE3" t="n">
-        <v>76785.67527044455</v>
+        <v>92194.01524102897</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.050192818460566e-06</v>
+        <v>1.000536177337381e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>69457.35819202298</v>
+        <v>83395.14782156068</v>
       </c>
     </row>
     <row r="4">
@@ -22053,28 +22053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.32446024612532</v>
+        <v>66.58585708344977</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.69736725164897</v>
+        <v>91.10570722223338</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.47291676309101</v>
+        <v>82.41070639262871</v>
       </c>
       <c r="AD4" t="n">
-        <v>55324.46024612532</v>
+        <v>66585.85708344977</v>
       </c>
       <c r="AE4" t="n">
-        <v>75697.36725164898</v>
+        <v>91105.70722223338</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.153079321750615e-06</v>
+        <v>1.020919887900895e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.177083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>68472.91676309101</v>
+        <v>82410.70639262871</v>
       </c>
     </row>
     <row r="5">
@@ -22159,28 +22159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.60324046044606</v>
+        <v>65.8646372977705</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.71056252291176</v>
+        <v>90.11890249349618</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.58029129267503</v>
+        <v>81.51808092221273</v>
       </c>
       <c r="AD5" t="n">
-        <v>54603.24046044606</v>
+        <v>65864.6372977705</v>
       </c>
       <c r="AE5" t="n">
-        <v>74710.56252291176</v>
+        <v>90118.90249349618</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.266355097866773e-06</v>
+        <v>1.043361904690015e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.111979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>67580.29129267503</v>
+        <v>81518.08092221273</v>
       </c>
     </row>
   </sheetData>
